--- a/medicine/Pharmacie/Carvédilol/Carvédilol.xlsx
+++ b/medicine/Pharmacie/Carvédilol/Carvédilol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carv%C3%A9dilol</t>
+          <t>Carvédilol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le carvédilol est un médicament bêta-bloquant avec des propriétés alpha-bloquantes, utilisé dans le traitement de l'insuffisance cardiaque.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carv%C3%A9dilol</t>
+          <t>Carvédilol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'insuffisance cardiaque systolique grave, le carvedilol diminue le risque de survenue d’évènements graves, que le patient soit très symptomatique[4],[5] ou moins[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'insuffisance cardiaque systolique grave, le carvedilol diminue le risque de survenue d’évènements graves, que le patient soit très symptomatique, ou moins.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carv%C3%A9dilol</t>
+          <t>Carvédilol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Prescription</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tout autre bêta bloquant dans l'insuffisance cardiaque, le carvedilol doit être donné à des doses croissantes, de manière progressive, en contrôlant la tension artérielle et la fréquence cardiaque, par des paliers de quelques semaines, jusqu'à parvenir, idéalement à 25 mg deux fois par jour.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carv%C3%A9dilol</t>
+          <t>Carvédilol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Médicaments alternatifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les autres bêta-bloquants ayant démontré une efficacité dans l'insuffisance cardiaque sont le métoprolol, le bisoprolol, le nébivolol. À part est l'ivabradine, bradycardisant (ralentisseur de la fréquence cardiaque comme les autres bêta-bloquants mais par un mécanisme autre et qui a également démontré une certaine efficacité en complément de ces derniers ou en remplacement en cas d'intolérance).
-Le carvédilol semble être supérieur au métoprolol que le patient soit resynchronisé par un stimulateur cardiaque multi-sites[7] ou non[8].
+Le carvédilol semble être supérieur au métoprolol que le patient soit resynchronisé par un stimulateur cardiaque multi-sites ou non.
 </t>
         </is>
       </c>
